--- a/src/main/resources/excelTemplate/excelTemplateWithOutDir.xlsx
+++ b/src/main/resources/excelTemplate/excelTemplateWithOutDir.xlsx
@@ -145,27 +145,8 @@
     <t>开放属性</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">更新周期
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（必填项）</t>
-    </r>
+    <t>更新每周期
+（必填项）</t>
   </si>
   <si>
     <r>
@@ -594,7 +575,7 @@
     <t>邮件或介质</t>
   </si>
   <si>
-    <t>成都市发展和改革委员会</t>
+    <t>外交部</t>
   </si>
   <si>
     <t>doc</t>
@@ -621,7 +602,7 @@
     <t>无</t>
   </si>
   <si>
-    <t>成都市经济和信息化委员会</t>
+    <t>国防部</t>
   </si>
   <si>
     <t>docx</t>
@@ -642,7 +623,7 @@
     <t>其他</t>
   </si>
   <si>
-    <t>成都市公安局</t>
+    <t>国家发展和改革委员会</t>
   </si>
   <si>
     <t>html</t>
@@ -663,7 +644,7 @@
     <t>文件</t>
   </si>
   <si>
-    <t>市民政局</t>
+    <t>教育部</t>
   </si>
   <si>
     <t>OFD</t>
@@ -672,7 +653,7 @@
     <t>dbf</t>
   </si>
   <si>
-    <t>市司法局</t>
+    <t>科学技术部</t>
   </si>
   <si>
     <t>pdf</t>
@@ -681,7 +662,7 @@
     <t>Dm</t>
   </si>
   <si>
-    <t>市规划管理局</t>
+    <t>工业和信息化部</t>
   </si>
   <si>
     <t>ppt</t>
@@ -690,7 +671,7 @@
     <t>KingbaseES</t>
   </si>
   <si>
-    <t>市交通运输委员会</t>
+    <t>国家民族事务委员会</t>
   </si>
   <si>
     <t>txt</t>
@@ -699,7 +680,7 @@
     <t>oracle</t>
   </si>
   <si>
-    <t>市林业和园林管理局</t>
+    <t>公安部</t>
   </si>
   <si>
     <t>wps</t>
@@ -708,7 +689,7 @@
     <t>sqlServer</t>
   </si>
   <si>
-    <t>市工商行政管理局</t>
+    <t>国家安全部</t>
   </si>
   <si>
     <t>xml</t>
@@ -717,193 +698,193 @@
     <t>sysbase</t>
   </si>
   <si>
-    <t>市质量技术监督局</t>
+    <t>监察部</t>
   </si>
   <si>
     <t>mysql</t>
   </si>
   <si>
-    <t>市旅游局</t>
-  </si>
-  <si>
-    <t>市城市管理委员会</t>
-  </si>
-  <si>
-    <t>市城乡房产管理局</t>
-  </si>
-  <si>
-    <t>市国有资产监督管理委员会</t>
-  </si>
-  <si>
-    <t>市人民政府政务服务中心</t>
-  </si>
-  <si>
-    <t>市人民政府应急管理办公室</t>
-  </si>
-  <si>
-    <t>市残疾人联合会</t>
-  </si>
-  <si>
-    <t>市防震减灾局</t>
-  </si>
-  <si>
-    <t>市教育局</t>
-  </si>
-  <si>
-    <t>市科学技术局</t>
-  </si>
-  <si>
-    <t>市财政局</t>
-  </si>
-  <si>
-    <t>市国土资源局</t>
-  </si>
-  <si>
-    <t>市人力资源和社会保障局</t>
-  </si>
-  <si>
-    <t>市城乡建设委员会</t>
-  </si>
-  <si>
-    <t>市水务局</t>
-  </si>
-  <si>
-    <t>市商务委员会</t>
-  </si>
-  <si>
-    <t>市文化广电新闻出版局</t>
-  </si>
-  <si>
-    <t>市卫生和计划生育委员会</t>
-  </si>
-  <si>
-    <t>市环境保护局</t>
-  </si>
-  <si>
-    <t>市统计局</t>
-  </si>
-  <si>
-    <t>市食品药品监督管理局</t>
-  </si>
-  <si>
-    <t>市国家税务局</t>
-  </si>
-  <si>
-    <t>市地方税务局</t>
-  </si>
-  <si>
-    <t>市安全生产监督管理局</t>
-  </si>
-  <si>
-    <t>市住房公积金管理中心</t>
-  </si>
-  <si>
-    <t>市金融工作办公室</t>
-  </si>
-  <si>
-    <t>市监察局</t>
-  </si>
-  <si>
-    <t>市审计局</t>
-  </si>
-  <si>
-    <t>市人民政府法制办公室</t>
-  </si>
-  <si>
-    <t>市民族宗教事务局</t>
-  </si>
-  <si>
-    <t>市农业委员会</t>
-  </si>
-  <si>
-    <t>市体育局</t>
-  </si>
-  <si>
-    <t>市机关事务管理局</t>
-  </si>
-  <si>
-    <t>市人民政府外事侨务办公室</t>
-  </si>
-  <si>
-    <t>市人民防空办公室</t>
-  </si>
-  <si>
-    <t>市投资促进委员会</t>
-  </si>
-  <si>
-    <t>市博览局（中国国际贸易促进委员会成都市分会）</t>
-  </si>
-  <si>
-    <t>市档案局（馆）</t>
-  </si>
-  <si>
-    <t>市地方志编纂委员会办公室</t>
-  </si>
-  <si>
-    <t>市气象局</t>
-  </si>
-  <si>
-    <t>市公共资源交易服务中心</t>
-  </si>
-  <si>
-    <t>市口岸与物流办公室</t>
-  </si>
-  <si>
-    <t>市中级人民法院</t>
-  </si>
-  <si>
-    <t>市人民检察院</t>
-  </si>
-  <si>
-    <t>中共成都市委党校</t>
-  </si>
-  <si>
-    <t>成都市总工会</t>
-  </si>
-  <si>
-    <t>共青团成都市委</t>
-  </si>
-  <si>
-    <t>市妇女联合会</t>
-  </si>
-  <si>
-    <t>市文学艺术界联合会</t>
-  </si>
-  <si>
-    <t>市工商业联合会</t>
-  </si>
-  <si>
-    <t>市老龄工作委员会办公室</t>
-  </si>
-  <si>
-    <t>市邮政管理局</t>
-  </si>
-  <si>
-    <t>成都市自来水有限责任公司</t>
-  </si>
-  <si>
-    <t>国网成都供电公司</t>
-  </si>
-  <si>
-    <t>成都市城市燃气有限责任公司</t>
-  </si>
-  <si>
-    <t>中国电信成都分公司</t>
-  </si>
-  <si>
-    <t>中国移动成都分公司</t>
-  </si>
-  <si>
-    <t>中国联通成都分公司</t>
-  </si>
-  <si>
-    <t>成都轨道交通集团有限公司</t>
-  </si>
-  <si>
-    <t>成都市公共交通集团有限公司</t>
-  </si>
-  <si>
-    <t>成都天府通金融服务股份有限公司</t>
+    <t>民政部</t>
+  </si>
+  <si>
+    <t>司法部</t>
+  </si>
+  <si>
+    <t>财政部</t>
+  </si>
+  <si>
+    <t>人力资源和社会保障部</t>
+  </si>
+  <si>
+    <t>国土资源部</t>
+  </si>
+  <si>
+    <t>环境保护部</t>
+  </si>
+  <si>
+    <t>住房和城乡建设部</t>
+  </si>
+  <si>
+    <t>交通运输部</t>
+  </si>
+  <si>
+    <t>水利部</t>
+  </si>
+  <si>
+    <t>农业部</t>
+  </si>
+  <si>
+    <t>商务部</t>
+  </si>
+  <si>
+    <t>文化部</t>
+  </si>
+  <si>
+    <t>卫生和计划生育委员会</t>
+  </si>
+  <si>
+    <t>中国人民银行</t>
+  </si>
+  <si>
+    <t>国务院国有资产监督管理委员会</t>
+  </si>
+  <si>
+    <t>海关总署</t>
+  </si>
+  <si>
+    <t>税务总局</t>
+  </si>
+  <si>
+    <t>工商行政管理总局</t>
+  </si>
+  <si>
+    <t>质量监督检验检疫总局</t>
+  </si>
+  <si>
+    <t>国家新闻出版广电总局</t>
+  </si>
+  <si>
+    <t>国家体育总局</t>
+  </si>
+  <si>
+    <t>国家安全生产监督管理总局</t>
+  </si>
+  <si>
+    <t>国家食品药品监督管理总局</t>
+  </si>
+  <si>
+    <t>国家统计局</t>
+  </si>
+  <si>
+    <t>国家林业局</t>
+  </si>
+  <si>
+    <t>国家知识产权局</t>
+  </si>
+  <si>
+    <t>国家旅游局</t>
+  </si>
+  <si>
+    <t>国家宗教事务局</t>
+  </si>
+  <si>
+    <t>国务院参事室</t>
+  </si>
+  <si>
+    <t>国家机关事务管理局</t>
+  </si>
+  <si>
+    <t>国务院侨务办公室</t>
+  </si>
+  <si>
+    <t>国务院港澳事务办公室</t>
+  </si>
+  <si>
+    <t>国务院法治办公室</t>
+  </si>
+  <si>
+    <t>国务院研究室</t>
+  </si>
+  <si>
+    <t>新华通讯社</t>
+  </si>
+  <si>
+    <t>中国科学院</t>
+  </si>
+  <si>
+    <t>中国社会科学院</t>
+  </si>
+  <si>
+    <t>中国工程院</t>
+  </si>
+  <si>
+    <t>国务院发展研究中心</t>
+  </si>
+  <si>
+    <t>国家行政学院</t>
+  </si>
+  <si>
+    <t>中国地震局</t>
+  </si>
+  <si>
+    <t>中国气象局</t>
+  </si>
+  <si>
+    <t>中国银行监督管理委员会</t>
+  </si>
+  <si>
+    <t>中国证券监督管理委员会</t>
+  </si>
+  <si>
+    <t>中国保险监督管理委员会</t>
+  </si>
+  <si>
+    <t>全国社会保障基金理事会</t>
+  </si>
+  <si>
+    <t>自然科学基金委员会</t>
+  </si>
+  <si>
+    <t>信访局</t>
+  </si>
+  <si>
+    <t>粮食局</t>
+  </si>
+  <si>
+    <t>能源局</t>
+  </si>
+  <si>
+    <t>国防科技工业局</t>
+  </si>
+  <si>
+    <t>烟草专卖局</t>
+  </si>
+  <si>
+    <t>外国专家局</t>
+  </si>
+  <si>
+    <t>国家公务员局</t>
+  </si>
+  <si>
+    <t>海洋局</t>
+  </si>
+  <si>
+    <t>测绘地理信息局</t>
+  </si>
+  <si>
+    <t>铁路局</t>
+  </si>
+  <si>
+    <t>中国民用航空局</t>
+  </si>
+  <si>
+    <t>国家邮政局</t>
+  </si>
+  <si>
+    <t>国家文物局</t>
+  </si>
+  <si>
+    <t>中医药管理局</t>
   </si>
   <si>
     <t>外汇管理局</t>
@@ -1023,13 +1004,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,26 +1025,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="黑体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1079,8 +1044,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1088,20 +1061,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1114,9 +1089,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1132,14 +1143,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1153,16 +1157,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1176,10 +1172,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1190,48 +1187,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1251,37 +1216,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,37 +1384,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,140 +1408,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1496,32 +1446,80 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1544,17 +1542,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1566,6 +1585,24 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1584,25 +1621,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1611,144 +1639,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1756,38 +1784,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1844,8 +1902,8 @@
     <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="Comma [0]" xfId="52"/>
-    <cellStyle name="Comma" xfId="53"/>
+    <cellStyle name="Comma" xfId="52"/>
+    <cellStyle name="Comma [0]" xfId="53"/>
     <cellStyle name="Normal" xfId="54"/>
     <cellStyle name="Percent" xfId="55"/>
   </cellStyles>
@@ -2145,200 +2203,200 @@
   <sheetPr/>
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H42"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="11" customWidth="1"/>
-    <col min="7" max="7" width="23.625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="7.875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="11" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="11" customWidth="1"/>
-    <col min="14" max="14" width="15.625" style="11" customWidth="1"/>
-    <col min="15" max="15" width="10.125" style="11" customWidth="1"/>
-    <col min="16" max="16" width="17" style="11" customWidth="1"/>
-    <col min="17" max="17" width="12" style="11" customWidth="1"/>
-    <col min="18" max="18" width="11.375" style="11" customWidth="1"/>
-    <col min="19" max="19" width="11.25" style="11" customWidth="1"/>
-    <col min="20" max="20" width="6.375" style="11" customWidth="1"/>
-    <col min="21" max="21" width="9" style="11" customWidth="1"/>
-    <col min="22" max="22" width="5.125" style="11" customWidth="1"/>
-    <col min="23" max="23" width="8.125" style="11" customWidth="1"/>
-    <col min="24" max="24" width="8.5" style="11" customWidth="1"/>
-    <col min="25" max="25" width="7.625" style="11" customWidth="1"/>
-    <col min="26" max="26" width="16.375" style="12" customWidth="1"/>
-    <col min="27" max="27" width="8.875" style="13" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="11.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12" style="8" customWidth="1"/>
+    <col min="3" max="3" width="41.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="12.25" style="8" customWidth="1"/>
+    <col min="14" max="14" width="12" style="8" customWidth="1"/>
+    <col min="15" max="15" width="12.25" style="8" customWidth="1"/>
+    <col min="16" max="16" width="17.625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="12" style="8" customWidth="1"/>
+    <col min="18" max="18" width="11.375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="10.5" style="8" customWidth="1"/>
+    <col min="20" max="20" width="10.25" style="8" customWidth="1"/>
+    <col min="21" max="21" width="16.125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="15.375" style="8" customWidth="1"/>
+    <col min="23" max="23" width="18.375" style="8" customWidth="1"/>
+    <col min="24" max="24" width="17.875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="10.25" style="8" customWidth="1"/>
+    <col min="26" max="26" width="17.375" style="10" customWidth="1"/>
+    <col min="27" max="27" width="17.375" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="34.5" customHeight="1" spans="1:27">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
       <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
+      <c r="AA1" s="22"/>
     </row>
     <row r="2" ht="34.5" customHeight="1" spans="1:27">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="15"/>
+      <c r="Q2" s="17"/>
       <c r="R2" s="15"/>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="T2" s="15"/>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="V2" s="15"/>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="X2" s="15"/>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="46.5" customHeight="1" spans="1:27">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
+    <row r="3" ht="79" customHeight="1" spans="1:27">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="15"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:AA3"/>
@@ -2359,39 +2417,36 @@
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AA2:AA3"/>
   </mergeCells>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:F1 H1:Z1">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:Z1">
       <formula1>字典!$A$2:$A$109</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G4:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 Q4:Q12 Q13:Q1048576">
+      <formula1>"字符串型C,数值型N,货币型Y,日期型D,日期时间型T,逻辑型L,备注型M,通用型G,双精度型B,整型I,浮点型F,二进制blob,长文本text"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G12 G13:G1048576">
       <formula1>"电子文件,电子表格,数据库,图形图像,流媒体,自描述格式"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 Q4:Q1048576">
-      <formula1>"字符串型C,数值型N,货币型Y,日期型D,日期时间型T,逻辑型L,备注型M,通用型G,双精度型B,整型I,浮点型F,二进制blob,长文本text"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576">
-      <formula1>$A$2:$A$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576 V2:V3 V4:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H12 H13:H1048576 V2:V3 V4:V12 V13:V1048576">
       <formula1>INDIRECT(G2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S12 S13:S1048576">
       <formula1>"无条件共享,有条件共享,不予共享"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3 U4:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3 U4:U12 U13:U1048576">
       <formula1>"共享平台方式,邮件或介质"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W4:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W4:W12 W13:W1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y12 Y13:Y1048576">
       <formula1>"  实时,每日,每周,每月,每季度,每半年,每年,其他"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z4:Z1048576">
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z4:Z12 Z13:Z1048576">
       <formula1>25569</formula1>
       <formula2>55153</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:O1048576">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:O12 J13:O1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -2407,12 +2462,12 @@
   <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
@@ -2455,28 +2510,28 @@
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2484,25 +2539,25 @@
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2510,23 +2565,23 @@
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="J4" s="10" t="s">
+      <c r="H4" s="4"/>
+      <c r="J4" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2534,106 +2589,106 @@
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2641,17 +2696,17 @@
       <c r="A12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2896,62 +2951,62 @@
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="3" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2961,167 +3016,167 @@
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="3" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="3" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="3" t="s">
         <v>182</v>
       </c>
     </row>
